--- a/Skye_OS_Data.xlsx
+++ b/Skye_OS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://athyn-my.sharepoint.com/personal/justinthomas_athyn_onmicrosoft_com/Documents/Desktop/Screenshots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F09CD52-D7AD-41A2-AA31-69076E742370}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AAD7EE8-E8C2-47D4-8F0D-98879B1D07BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="264">
   <si>
     <t>Catalog</t>
   </si>
@@ -723,6 +723,111 @@
   </si>
   <si>
     <t>Sublimit Amount</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Generation Jobs</t>
+  </si>
+  <si>
+    <t>generation_job</t>
+  </si>
+  <si>
+    <t>generation_job_id</t>
+  </si>
+  <si>
+    <t>generator_model_id</t>
+  </si>
+  <si>
+    <t>data_seed_id</t>
+  </si>
+  <si>
+    <t>Generation Job ID</t>
+  </si>
+  <si>
+    <t>Generator Model ID</t>
+  </si>
+  <si>
+    <t>Data Seed ID</t>
+  </si>
+  <si>
+    <t>Generation Log</t>
+  </si>
+  <si>
+    <t>generation_log</t>
+  </si>
+  <si>
+    <t>output_id</t>
+  </si>
+  <si>
+    <t>model_code</t>
+  </si>
+  <si>
+    <t>output_file_name</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Output ID</t>
+  </si>
+  <si>
+    <t>Model Code</t>
+  </si>
+  <si>
+    <t>Output File Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Model Parameter</t>
+  </si>
+  <si>
+    <t>model_parameter</t>
+  </si>
+  <si>
+    <t>model_parameter_id</t>
+  </si>
+  <si>
+    <t>training_job_id</t>
+  </si>
+  <si>
+    <t>input_output_id</t>
+  </si>
+  <si>
+    <t>Model Parameter ID</t>
+  </si>
+  <si>
+    <t>Training Job ID</t>
+  </si>
+  <si>
+    <t>Input / Output</t>
+  </si>
+  <si>
+    <t>Model Training Jobs</t>
+  </si>
+  <si>
+    <t>training_job</t>
+  </si>
+  <si>
+    <t>training_model_id</t>
+  </si>
+  <si>
+    <t>data_set_id</t>
+  </si>
+  <si>
+    <t>pickle_file_name</t>
+  </si>
+  <si>
+    <t>Training Model ID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>Pickle File Name</t>
   </si>
 </sst>
 </file>
@@ -775,6 +880,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,6 +3766,397 @@
         <v>15</v>
       </c>
     </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" t="s">
+        <v>79</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" t="s">
+        <v>234</v>
+      </c>
+      <c r="E117" t="s">
+        <v>237</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" t="s">
+        <v>247</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" t="s">
+        <v>253</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" t="s">
+        <v>120</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" t="s">
+        <v>252</v>
+      </c>
+      <c r="E125" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" t="s">
+        <v>257</v>
+      </c>
+      <c r="D126" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" t="s">
+        <v>254</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" t="s">
+        <v>258</v>
+      </c>
+      <c r="E127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128" t="s">
+        <v>60</v>
+      </c>
+      <c r="E128" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" t="s">
+        <v>262</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130" t="s">
+        <v>260</v>
+      </c>
+      <c r="E130" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
